--- a/2021-1116-ptt-stock.xlsx
+++ b/2021-1116-ptt-stock.xlsx
@@ -1,32 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeff/Downloads/thuis/python-ntust-202110/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{034AFB46-03E0-0744-A48F-0042B7A643A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="文章本文" sheetId="1" r:id="rId1"/>
     <sheet name="回覆內容" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2845" uniqueCount="1393">
   <si>
-    <t>author</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>url</t>
+    <t>作者</t>
+  </si>
+  <si>
+    <t>標題</t>
+  </si>
+  <si>
+    <t>時間</t>
+  </si>
+  <si>
+    <t>連結</t>
   </si>
   <si>
     <t>lupefan4eva (LupeFan4Eva)</t>
@@ -149,13 +155,13 @@
     <t>https://www.ptt.cc/bbs/Stock/M.1637055468.A.5D5.html</t>
   </si>
   <si>
-    <t>tag</t>
-  </si>
-  <si>
-    <t>content</t>
-  </si>
-  <si>
-    <t>article_no</t>
+    <t>類型</t>
+  </si>
+  <si>
+    <t>內容</t>
+  </si>
+  <si>
+    <t>本文編號</t>
   </si>
   <si>
     <t>→</t>
@@ -4199,12 +4205,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4212,7 +4218,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4222,6 +4228,13 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -4271,16 +4284,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4322,7 +4343,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4354,9 +4375,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4388,6 +4427,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4563,12 +4620,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
@@ -4584,7 +4641,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" ht="15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -4601,7 +4658,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" ht="15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -4618,7 +4675,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" ht="15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -4635,7 +4692,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" ht="15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -4652,7 +4709,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" ht="15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -4669,7 +4726,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" ht="15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -4686,7 +4743,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" ht="15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -4703,7 +4760,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" ht="15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -4720,7 +4777,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" ht="15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -4737,7 +4794,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" ht="15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -4755,29 +4812,37 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="E4" r:id="rId3"/>
-    <hyperlink ref="E5" r:id="rId4"/>
-    <hyperlink ref="E6" r:id="rId5"/>
-    <hyperlink ref="E7" r:id="rId6"/>
-    <hyperlink ref="E8" r:id="rId7"/>
-    <hyperlink ref="E9" r:id="rId8"/>
-    <hyperlink ref="E10" r:id="rId9"/>
-    <hyperlink ref="E11" r:id="rId10"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="E10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E700"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="22.59765625" customWidth="1"/>
+    <col min="2" max="2" width="50.19921875" customWidth="1"/>
+    <col min="3" max="3" width="39.19921875" customWidth="1"/>
+    <col min="4" max="4" width="32.59765625" customWidth="1"/>
+    <col min="5" max="5" width="30.796875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
@@ -6173,7 +6238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" ht="15">
       <c r="A83" t="s">
         <v>47</v>
       </c>
@@ -13330,7 +13395,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="504" spans="1:5">
+    <row r="504" spans="1:5" ht="15">
       <c r="A504" t="s">
         <v>48</v>
       </c>
@@ -14044,7 +14109,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="546" spans="1:5">
+    <row r="546" spans="1:5" ht="15">
       <c r="A546" t="s">
         <v>48</v>
       </c>
@@ -14095,7 +14160,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="549" spans="1:5">
+    <row r="549" spans="1:5" ht="15">
       <c r="A549" t="s">
         <v>48</v>
       </c>
@@ -14265,7 +14330,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="559" spans="1:5">
+    <row r="559" spans="1:5" ht="15">
       <c r="A559" t="s">
         <v>48</v>
       </c>
@@ -14571,7 +14636,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="577" spans="1:5">
+    <row r="577" spans="1:5" ht="15">
       <c r="A577" t="s">
         <v>48</v>
       </c>
@@ -14775,7 +14840,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="589" spans="1:5">
+    <row r="589" spans="1:5" ht="15">
       <c r="A589" t="s">
         <v>48</v>
       </c>
@@ -16628,7 +16693,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="698" spans="1:5">
+    <row r="698" spans="1:5" ht="15">
       <c r="A698" t="s">
         <v>47</v>
       </c>
@@ -16680,15 +16745,16 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C83" r:id="rId1"/>
-    <hyperlink ref="C504" r:id="rId2"/>
-    <hyperlink ref="C546" r:id="rId3"/>
-    <hyperlink ref="C549" r:id="rId4"/>
-    <hyperlink ref="C559" r:id="rId5"/>
-    <hyperlink ref="C577" r:id="rId6"/>
-    <hyperlink ref="C589" r:id="rId7"/>
-    <hyperlink ref="C698" r:id="rId8"/>
+    <hyperlink ref="C83" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="C504" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="C546" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="C549" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="C559" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="C577" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="C589" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="C698" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
